--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H2">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I2">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J2">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N2">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q2">
-        <v>113.4443475041919</v>
+        <v>196.7151934874138</v>
       </c>
       <c r="R2">
-        <v>1020.999127537727</v>
+        <v>1770.436741386724</v>
       </c>
       <c r="S2">
-        <v>0.0634641418657684</v>
+        <v>0.1127428351772202</v>
       </c>
       <c r="T2">
-        <v>0.06346414186576839</v>
+        <v>0.1127428351772202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H3">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I3">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J3">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q3">
-        <v>159.9174608528047</v>
+        <v>197.8622914601526</v>
       </c>
       <c r="R3">
-        <v>1439.257147675242</v>
+        <v>1780.760623141374</v>
       </c>
       <c r="S3">
-        <v>0.08946258359854238</v>
+        <v>0.1134002682680754</v>
       </c>
       <c r="T3">
-        <v>0.08946258359854237</v>
+        <v>0.1134002682680754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H4">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I4">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J4">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N4">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O4">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P4">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q4">
-        <v>56.97061845877479</v>
+        <v>30.74678478258467</v>
       </c>
       <c r="R4">
-        <v>512.735566128973</v>
+        <v>276.721063043262</v>
       </c>
       <c r="S4">
-        <v>0.03187105829062702</v>
+        <v>0.01762181978685951</v>
       </c>
       <c r="T4">
-        <v>0.031871058290627</v>
+        <v>0.01762181978685951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H5">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I5">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J5">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N5">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O5">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P5">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q5">
-        <v>681.6139898556136</v>
+        <v>716.3448239632443</v>
       </c>
       <c r="R5">
-        <v>6134.525908700522</v>
+        <v>6447.103415669199</v>
       </c>
       <c r="S5">
-        <v>0.3813151373477701</v>
+        <v>0.410556729179692</v>
       </c>
       <c r="T5">
-        <v>0.38131513734777</v>
+        <v>0.410556729179692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N6">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q6">
-        <v>38.22667668627889</v>
+        <v>53.57404490221779</v>
       </c>
       <c r="R6">
-        <v>344.04009017651</v>
+        <v>482.1664041199601</v>
       </c>
       <c r="S6">
-        <v>0.0213851398121464</v>
+        <v>0.03070474429101071</v>
       </c>
       <c r="T6">
-        <v>0.0213851398121464</v>
+        <v>0.0307047442910107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q7">
         <v>53.88644923260667</v>
@@ -883,10 +883,10 @@
         <v>484.97804309346</v>
       </c>
       <c r="S7">
-        <v>0.03014568230130909</v>
+        <v>0.03088379172148758</v>
       </c>
       <c r="T7">
-        <v>0.03014568230130909</v>
+        <v>0.03088379172148758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N8">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O8">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P8">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q8">
-        <v>19.19705529938778</v>
+        <v>8.373677697886668</v>
       </c>
       <c r="R8">
-        <v>172.77349769449</v>
+        <v>75.36309928098001</v>
       </c>
       <c r="S8">
-        <v>0.01073940366116812</v>
+        <v>0.00479918275646769</v>
       </c>
       <c r="T8">
-        <v>0.01073940366116812</v>
+        <v>0.004799182756467689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N9">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O9">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P9">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q9">
-        <v>229.6794700510956</v>
+        <v>195.0916402750233</v>
       </c>
       <c r="R9">
-        <v>2067.11523045986</v>
+        <v>1755.82476247521</v>
       </c>
       <c r="S9">
-        <v>0.1284895262889905</v>
+        <v>0.1118123326116535</v>
       </c>
       <c r="T9">
-        <v>0.1284895262889905</v>
+        <v>0.1118123326116535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H10">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N10">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q10">
-        <v>7.692347119327001</v>
+        <v>9.249879654340445</v>
       </c>
       <c r="R10">
-        <v>69.23112407394301</v>
+        <v>83.24891688906401</v>
       </c>
       <c r="S10">
-        <v>0.004303327751465666</v>
+        <v>0.005301357962190915</v>
       </c>
       <c r="T10">
-        <v>0.004303327751465666</v>
+        <v>0.005301357962190914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H11">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.461046</v>
       </c>
       <c r="O11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q11">
-        <v>10.843560268842</v>
+        <v>9.303818132662666</v>
       </c>
       <c r="R11">
-        <v>97.59204241957801</v>
+        <v>83.734363193964</v>
       </c>
       <c r="S11">
-        <v>0.006066210105411991</v>
+        <v>0.005332271573200739</v>
       </c>
       <c r="T11">
-        <v>0.006066210105411991</v>
+        <v>0.005332271573200738</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H12">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N12">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O12">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P12">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q12">
-        <v>3.863019907373001</v>
+        <v>1.445765596214667</v>
       </c>
       <c r="R12">
-        <v>34.767179166357</v>
+        <v>13.011890365932</v>
       </c>
       <c r="S12">
-        <v>0.002161088223657407</v>
+        <v>0.0008286076404634944</v>
       </c>
       <c r="T12">
-        <v>0.002161088223657407</v>
+        <v>0.0008286076404634942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H13">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N13">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O13">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P13">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q13">
-        <v>46.218357518122</v>
+        <v>33.68373990437934</v>
       </c>
       <c r="R13">
-        <v>415.965217663098</v>
+        <v>303.153659139414</v>
       </c>
       <c r="S13">
-        <v>0.02585592374467589</v>
+        <v>0.01930506875888452</v>
       </c>
       <c r="T13">
-        <v>0.02585592374467589</v>
+        <v>0.01930506875888451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H14">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I14">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J14">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N14">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q14">
-        <v>41.02835845891756</v>
+        <v>41.10077788842801</v>
       </c>
       <c r="R14">
-        <v>369.255226130258</v>
+        <v>369.9070009958521</v>
       </c>
       <c r="S14">
-        <v>0.02295248391869087</v>
+        <v>0.02355597524004701</v>
       </c>
       <c r="T14">
-        <v>0.02295248391869087</v>
+        <v>0.023555975240047</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H15">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I15">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J15">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.461046</v>
       </c>
       <c r="O15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q15">
-        <v>57.83585566011867</v>
+        <v>41.340447321978</v>
       </c>
       <c r="R15">
-        <v>520.5227009410679</v>
+        <v>372.064025897802</v>
       </c>
       <c r="S15">
-        <v>0.03235509771349557</v>
+        <v>0.02369333632011769</v>
       </c>
       <c r="T15">
-        <v>0.03235509771349556</v>
+        <v>0.02369333632011769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H16">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I16">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J16">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N16">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O16">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P16">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q16">
-        <v>20.60403190794911</v>
+        <v>6.424093379514001</v>
       </c>
       <c r="R16">
-        <v>185.436287171542</v>
+        <v>57.816840415626</v>
       </c>
       <c r="S16">
-        <v>0.01152650821994091</v>
+        <v>0.003681822884188957</v>
       </c>
       <c r="T16">
-        <v>0.01152650821994091</v>
+        <v>0.003681822884188956</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H17">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I17">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J17">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N17">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O17">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P17">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q17">
-        <v>246.5129706473542</v>
+        <v>149.669829662253</v>
       </c>
       <c r="R17">
-        <v>2218.616735826188</v>
+        <v>1347.028466960277</v>
       </c>
       <c r="S17">
-        <v>0.1379066871563398</v>
+        <v>0.0857798558284399</v>
       </c>
       <c r="T17">
-        <v>0.1379066871563398</v>
+        <v>0.0857798558284399</v>
       </c>
     </row>
   </sheetData>
